--- a/www.eia.gov/electricity/monthly/xls/table_a_2_bcontinued.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_a_2_bcontinued.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table A.2.B. Relative Standard Error (Percent) for Net Generation by Fuel Type:</t>
   </si>
   <si>
-    <t>Electric Utilities by Census Division and State, Year-to-Date through October 2016 (Continued)</t>
+    <t>Electric Utilities by Census Division and State, Year-to-Date through November 2016 (Continued)</t>
   </si>
   <si>
     <t>Census Region and State</t>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F4" s="6">
         <v>3</v>
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F5" s="8">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G5" s="8">
         <v>0</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="8">
-        <v>205</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="8">
-        <v>381</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="E7" s="8">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="F7" s="8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="8">
         <v>0</v>
@@ -1323,7 +1323,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="8">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="8">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="8">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1427,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="E11" s="6">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F11" s="6">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G11" s="6">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1456,10 +1456,10 @@
         <v>0</v>
       </c>
       <c r="E12" s="8">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F12" s="8">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G12" s="8">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="8">
-        <v>26</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="8">
-        <v>217</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F15" s="6">
         <v>2</v>
@@ -1575,7 +1575,7 @@
         <v>167</v>
       </c>
       <c r="F16" s="8">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G16" s="8">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="8">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1601,10 +1601,10 @@
         <v>0</v>
       </c>
       <c r="E17" s="8">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" s="8">
         <v>0</v>
@@ -1630,10 +1630,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="8">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="F18" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="8">
         <v>0</v>
@@ -1659,10 +1659,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="8">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="F19" s="8">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="G19" s="8">
         <v>0</v>
@@ -1720,13 +1720,13 @@
         <v>0</v>
       </c>
       <c r="F21" s="6">
-        <v>0.43</v>
+        <v>0.39</v>
       </c>
       <c r="G21" s="6">
         <v>0</v>
       </c>
       <c r="H21" s="6">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I21" s="6">
         <v>1</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="8">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="G22" s="8">
         <v>0</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1836,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="8">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G25" s="8">
         <v>0</v>
@@ -1865,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G26" s="8">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="8">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="I27" s="8">
         <v>2</v>
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="8">
-        <v>0.44</v>
+        <v>0.39</v>
       </c>
       <c r="G28" s="8">
         <v>0</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="E29" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F29" s="6">
         <v>4</v>
@@ -1961,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1978,10 +1978,10 @@
         <v>0</v>
       </c>
       <c r="E30" s="8">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="F30" s="8">
-        <v>67</v>
+        <v>97</v>
       </c>
       <c r="G30" s="8">
         <v>0</v>
@@ -1990,7 +1990,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="8">
-        <v>219</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="E31" s="8">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F31" s="8">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G31" s="8">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="8">
-        <v>0.24</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2036,10 +2036,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F32" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G32" s="8">
         <v>0</v>
@@ -2048,7 +2048,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="8">
-        <v>0.41</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2065,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="E33" s="8">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="F33" s="8">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="G33" s="8">
         <v>0</v>
@@ -2077,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="8">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2094,10 +2094,10 @@
         <v>0</v>
       </c>
       <c r="E34" s="8">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="F34" s="8">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G34" s="8">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="8">
-        <v>1</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="8">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G35" s="8">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="8">
-        <v>1</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2152,10 +2152,10 @@
         <v>0</v>
       </c>
       <c r="E36" s="8">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F36" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G36" s="8">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="8">
-        <v>0.48</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G38" s="6">
         <v>0</v>
@@ -2222,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2271,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G40" s="8">
         <v>0</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="6">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2425,7 +2425,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="8">
-        <v>0.41</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="E48" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F48" s="6">
         <v>2</v>
@@ -2509,10 +2509,10 @@
         <v>0</v>
       </c>
       <c r="H48" s="6">
-        <v>0</v>
+        <v>2257</v>
       </c>
       <c r="I48" s="6">
-        <v>0.45</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="E49" s="8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F49" s="8">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G49" s="8">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="I49" s="8">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -2561,7 +2561,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="8">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G50" s="8">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="8">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G51" s="8">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="8">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2628,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="8">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2645,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="E53" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F53" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G53" s="8">
         <v>0</v>
@@ -2657,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="8">
-        <v>7.0000000000000007E-2</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2674,16 +2674,16 @@
         <v>0</v>
       </c>
       <c r="E54" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F54" s="8">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G54" s="8">
         <v>0</v>
       </c>
       <c r="H54" s="8">
-        <v>0</v>
+        <v>2158</v>
       </c>
       <c r="I54" s="8">
         <v>1</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="E57" s="6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F57" s="6">
         <v>1</v>
@@ -2790,10 +2790,10 @@
         <v>0</v>
       </c>
       <c r="E58" s="8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F58" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G58" s="8">
         <v>0</v>
@@ -2813,16 +2813,16 @@
         <v>0</v>
       </c>
       <c r="C59" s="8">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="D59" s="8">
         <v>0</v>
       </c>
       <c r="E59" s="8">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="F59" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G59" s="8">
         <v>0</v>
@@ -2831,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -2877,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="6">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F61" s="6">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G61" s="6">
         <v>0</v>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
       <c r="F62" s="8">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G62" s="8">
         <v>0</v>
@@ -2935,10 +2935,10 @@
         <v>0</v>
       </c>
       <c r="E63" s="8">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F63" s="8">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="G63" s="8">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="8">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2967,16 +2967,16 @@
         <v>5</v>
       </c>
       <c r="F64" s="6">
-        <v>0.44</v>
+        <v>0.41</v>
       </c>
       <c r="G64" s="6">
         <v>0</v>
       </c>
       <c r="H64" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I64" s="6">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="65" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
